--- a/config_6.15/act_054_byns_config.xlsx
+++ b/config_6.15/act_054_byns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+  <si>
+    <t>line</t>
+  </si>
   <si>
     <t>task_id|任务Id</t>
   </si>
@@ -36,6 +39,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每日</t>
     </r>
     <r>
@@ -109,6 +119,9 @@
     <t>award_icon|图标</t>
   </si>
   <si>
+    <t>tips</t>
+  </si>
+  <si>
     <t>话费碎片</t>
   </si>
   <si>
@@ -180,12 +193,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,34 +210,89 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,108 +306,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,19 +372,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,163 +540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,21 +563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,15 +590,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -619,6 +601,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,6 +646,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,169 +663,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1135,23 +1138,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="74.625" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="74.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1163,116 +1166,122 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="15" spans="1:5">
-      <c r="A2" s="1">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>21783</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>1620689400</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1621267199</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,37 +1293,41 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1325,13 +1338,13 @@
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1342,13 +1355,13 @@
         <v>500</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>1800</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1359,13 +1372,13 @@
         <v>1000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>0.25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1376,13 +1389,13 @@
         <v>2000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>5000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1393,13 +1406,13 @@
         <v>5000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1410,13 +1423,13 @@
         <v>10000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1427,13 +1440,13 @@
         <v>30000</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1444,13 +1457,13 @@
         <v>80000</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1461,13 +1474,13 @@
         <v>150000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1478,13 +1491,13 @@
         <v>300000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1495,13 +1508,13 @@
         <v>500000</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">

--- a/config_6.15/act_054_byns_config.xlsx
+++ b/config_6.15/act_054_byns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -39,13 +39,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>每日</t>
     </r>
     <r>
@@ -73,7 +66,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>\n1000</t>
+      <t>\n10000</t>
     </r>
     <r>
       <rPr>
@@ -128,16 +121,16 @@
     <t>com_award_icon_hfsp</t>
   </si>
   <si>
-    <t>鲸币</t>
+    <t>金币</t>
   </si>
   <si>
     <t>pay_icon_gold3</t>
   </si>
   <si>
-    <t>福卡</t>
-  </si>
-  <si>
-    <t>ad_2znjnk_icon_fk1</t>
+    <t>福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
   </si>
   <si>
     <t>鱼币</t>
@@ -146,46 +139,46 @@
     <t>com_icon_yb</t>
   </si>
   <si>
-    <t>1万~3万</t>
+    <t>10万~30万</t>
   </si>
   <si>
     <t>pay_icon_gold4</t>
   </si>
   <si>
-    <t>2万~5万</t>
+    <t>20万~50万</t>
   </si>
   <si>
     <t>pay_icon_gold5</t>
   </si>
   <si>
-    <t>8~15</t>
-  </si>
-  <si>
-    <t>ad_2znjnk_icon_fk2</t>
-  </si>
-  <si>
-    <t>20万~50万</t>
+    <t>800~1500</t>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+  </si>
+  <si>
+    <t>200万~500万</t>
   </si>
   <si>
     <t>com_award_icon_yb1</t>
   </si>
   <si>
-    <t>30万~80万</t>
+    <t>300万~800万</t>
   </si>
   <si>
     <t>pay_icon_gold6</t>
   </si>
   <si>
-    <t>60~120</t>
-  </si>
-  <si>
-    <t>ad_2znjnk_icon_fk3</t>
-  </si>
-  <si>
-    <t>80~200</t>
-  </si>
-  <si>
-    <t>ad_2znjnk_icon_fk4</t>
+    <t>6000~12000</t>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>8000~20000</t>
+  </si>
+  <si>
+    <t>ty_icon_flq5</t>
   </si>
 </sst>
 </file>
@@ -193,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -208,7 +201,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,74 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -308,12 +301,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -321,24 +323,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,187 +365,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,16 +583,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -622,6 +615,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -629,16 +633,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -652,27 +656,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,16 +674,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,125 +692,128 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1140,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1178,13 +1174,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>21783</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1620689400</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1621267199</v>
+        <v>1000665</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1623715200</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1624291199</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -1295,8 +1291,8 @@
   <sheetPr/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1358,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>1800</v>
+        <v>18000</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -1375,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -1392,7 +1388,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
